--- a/asserts/coords_tracking/Cerulean City coordinates.xlsx
+++ b/asserts/coords_tracking/Cerulean City coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SS\Documents\GitHub\pokemmo_py_auto\asserts\coords_tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF38BA0-D428-479C-9E51-0AA2C1445F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CA988D-81D9-4A9C-B633-4EB00DCF279B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="4245" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="2">
   <si>
     <t>farming</t>
+  </si>
+  <si>
+    <t>pc_in</t>
   </si>
 </sst>
 </file>
@@ -420,116 +423,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="7.42578125" style="2"/>
+    <col min="1" max="16384" width="5.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1">
         <v>10</v>
       </c>
-      <c r="C1" s="1">
+      <c r="F1" s="1">
         <v>11</v>
       </c>
-      <c r="D1" s="1">
+      <c r="G1" s="1">
         <v>12</v>
       </c>
-      <c r="E1" s="1">
+      <c r="H1" s="1">
         <v>13</v>
       </c>
-      <c r="F1" s="1">
+      <c r="I1" s="1">
         <v>14</v>
       </c>
-      <c r="G1" s="1">
+      <c r="J1" s="1">
         <v>15</v>
       </c>
-      <c r="H1" s="1">
+      <c r="K1" s="1">
         <v>16</v>
       </c>
-      <c r="I1" s="1">
+      <c r="L1" s="1">
         <v>17</v>
       </c>
-      <c r="J1" s="1">
+      <c r="M1" s="1">
         <v>18</v>
       </c>
-      <c r="K1" s="1">
+      <c r="N1" s="1">
         <v>19</v>
       </c>
-      <c r="L1" s="1">
+      <c r="O1" s="1">
         <v>20</v>
       </c>
-      <c r="M1" s="1">
+      <c r="P1" s="1">
         <v>21</v>
       </c>
-      <c r="N1" s="1">
+      <c r="Q1" s="1">
         <v>22</v>
       </c>
-      <c r="O1" s="1">
+      <c r="R1" s="1">
         <v>23</v>
       </c>
-      <c r="P1" s="1">
+      <c r="S1" s="1">
         <v>24</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="T1" s="1">
         <v>25</v>
       </c>
-      <c r="R1" s="1">
+      <c r="U1" s="1">
         <v>26</v>
       </c>
-      <c r="S1" s="1">
+      <c r="V1" s="1">
         <v>27</v>
       </c>
-      <c r="T1" s="1">
+      <c r="W1" s="1">
         <v>28</v>
       </c>
-      <c r="U1" s="1">
+      <c r="X1" s="1">
         <v>29</v>
       </c>
-      <c r="V1" s="1">
+      <c r="Y1" s="1">
         <v>30</v>
       </c>
-      <c r="W1" s="1">
+      <c r="Z1" s="1">
         <v>31</v>
       </c>
-      <c r="X1" s="1">
+      <c r="AA1" s="1">
         <v>32</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="AB1" s="1">
         <v>33</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AC1" s="1">
         <v>34</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AD1" s="1">
         <v>35</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AE1" s="1">
         <v>36</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AF1" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>18</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
@@ -548,55 +551,76 @@
       <c r="K2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>19</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
       <c r="K3" s="2">
         <v>1</v>
       </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
       <c r="N3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20</v>
       </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
@@ -630,7 +654,7 @@
       <c r="P4" s="2">
         <v>1</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R4" s="2">
@@ -639,17 +663,32 @@
       <c r="S4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>21</v>
       </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
@@ -689,19 +728,19 @@
       <c r="R5" s="2">
         <v>1</v>
       </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
       <c r="T5" s="2">
         <v>1</v>
       </c>
       <c r="U5" s="2">
         <v>1</v>
       </c>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="2">
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
         <v>1</v>
       </c>
       <c r="AB5" s="2">
@@ -710,26 +749,26 @@
       <c r="AC5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>22</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
@@ -781,29 +820,29 @@
       <c r="Y6" s="2">
         <v>1</v>
       </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
       <c r="AA6" s="2">
         <v>1</v>
       </c>
       <c r="AB6" s="2">
         <v>1</v>
       </c>
-      <c r="AC6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>23</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
@@ -876,24 +915,24 @@
       <c r="AC7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>24</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="2">
@@ -911,15 +950,6 @@
       <c r="O8" s="2">
         <v>1</v>
       </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2">
-        <v>1</v>
-      </c>
       <c r="S8" s="2">
         <v>1</v>
       </c>
@@ -941,53 +971,44 @@
       <c r="Y8" s="2">
         <v>1</v>
       </c>
+      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
       <c r="AA8" s="2">
         <v>1</v>
       </c>
       <c r="AB8" s="2">
         <v>1</v>
       </c>
-      <c r="AC8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
       <c r="M9" s="2">
         <v>1</v>
       </c>
       <c r="N9" s="2">
         <v>1</v>
       </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
       <c r="S9" s="2">
         <v>1</v>
       </c>
@@ -1021,21 +1042,21 @@
       <c r="AC9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>26</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="2">
@@ -1044,24 +1065,24 @@
       <c r="L10" s="2">
         <v>1</v>
       </c>
-      <c r="AC10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>27</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="2">
@@ -1070,24 +1091,24 @@
       <c r="L11" s="2">
         <v>1</v>
       </c>
-      <c r="AC11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>28</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="2">
@@ -1096,23 +1117,23 @@
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="AC12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>29</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
@@ -1170,29 +1191,29 @@
       <c r="W13" s="2">
         <v>1</v>
       </c>
+      <c r="X13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2">
         <v>1</v>
       </c>
-      <c r="AA13" s="2">
-        <v>1</v>
-      </c>
       <c r="AC13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>30</v>
       </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
       <c r="K14" s="2">
         <v>1</v>
       </c>
@@ -1244,23 +1265,23 @@
       <c r="AA14" s="2">
         <v>1</v>
       </c>
+      <c r="AB14" s="2">
+        <v>1</v>
+      </c>
       <c r="AC14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>31</v>
       </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
@@ -1297,43 +1318,43 @@
       <c r="V15" s="2">
         <v>1</v>
       </c>
+      <c r="W15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
       <c r="Y15" s="2">
         <v>1</v>
       </c>
-      <c r="Z15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
       <c r="AB15" s="2">
         <v>1</v>
       </c>
       <c r="AC15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>32</v>
       </c>
-      <c r="R16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>33</v>
       </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
       <c r="L17" s="2">
         <v>1</v>
       </c>
@@ -1361,23 +1382,20 @@
       <c r="T17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="2">
+        <v>1</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>34</v>
       </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
       <c r="N18" s="2">
         <v>1</v>
       </c>
@@ -1399,23 +1417,20 @@
       <c r="T18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="2">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1</v>
+      </c>
+      <c r="W18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>35</v>
       </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
       <c r="O19" s="2">
         <v>1</v>
       </c>
@@ -1431,20 +1446,20 @@
       <c r="S19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
+        <v>1</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>36</v>
       </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1</v>
-      </c>
       <c r="O20" s="3">
         <v>1</v>
       </c>
@@ -1460,23 +1475,20 @@
       <c r="S20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="3">
+        <v>1</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>37</v>
       </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
       <c r="O21" s="2">
         <v>1</v>
       </c>
@@ -1492,23 +1504,20 @@
       <c r="S21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>38</v>
       </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1</v>
-      </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
       <c r="O22" s="2">
         <v>1</v>
       </c>
@@ -1524,23 +1533,20 @@
       <c r="S22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T22" s="2">
+        <v>1</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>39</v>
       </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
-      <c r="M23" s="2">
-        <v>1</v>
-      </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
       <c r="O23" s="2">
         <v>1</v>
       </c>
@@ -1556,20 +1562,20 @@
       <c r="S23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40</v>
       </c>
-      <c r="L24" s="2">
-        <v>1</v>
-      </c>
-      <c r="M24" s="2">
-        <v>1</v>
-      </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
       <c r="O24" s="2">
         <v>1</v>
       </c>
@@ -1585,23 +1591,20 @@
       <c r="S24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="2">
+        <v>1</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41</v>
       </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2">
-        <v>1</v>
-      </c>
-      <c r="N25" s="2">
-        <v>1</v>
-      </c>
       <c r="O25" s="2">
         <v>1</v>
       </c>
@@ -1617,23 +1620,20 @@
       <c r="S25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T25" s="2">
+        <v>1</v>
+      </c>
+      <c r="U25" s="2">
+        <v>1</v>
+      </c>
+      <c r="V25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42</v>
       </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
       <c r="O26" s="2">
         <v>1</v>
       </c>
@@ -1649,23 +1649,20 @@
       <c r="S26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T26" s="2">
+        <v>1</v>
+      </c>
+      <c r="U26" s="2">
+        <v>1</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43</v>
       </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-      <c r="M27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2">
-        <v>1</v>
-      </c>
       <c r="O27" s="2">
         <v>1</v>
       </c>
@@ -1681,23 +1678,20 @@
       <c r="S27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T27" s="2">
+        <v>1</v>
+      </c>
+      <c r="U27" s="2">
+        <v>1</v>
+      </c>
+      <c r="V27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44</v>
       </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="3">
-        <v>1</v>
-      </c>
-      <c r="N28" s="3">
-        <v>1</v>
-      </c>
       <c r="O28" s="3">
         <v>1</v>
       </c>
@@ -1713,81 +1707,78 @@
       <c r="S28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T28" s="3">
+        <v>1</v>
+      </c>
+      <c r="U28" s="3">
+        <v>1</v>
+      </c>
+      <c r="V28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45</v>
       </c>
-      <c r="L29" s="2">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2">
-        <v>1</v>
-      </c>
-      <c r="N29" s="2">
-        <v>1</v>
-      </c>
-      <c r="O29" s="2">
-        <v>1</v>
-      </c>
-      <c r="P29" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>1</v>
-      </c>
-      <c r="R29" s="2">
-        <v>1</v>
-      </c>
-      <c r="S29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>46</v>
       </c>
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2">
-        <v>1</v>
-      </c>
-      <c r="M30" s="2">
-        <v>1</v>
-      </c>
-      <c r="N30" s="2">
-        <v>1</v>
-      </c>
-      <c r="O30" s="2">
-        <v>1</v>
-      </c>
-      <c r="P30" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>1</v>
-      </c>
-      <c r="R30" s="2">
-        <v>1</v>
-      </c>
-      <c r="S30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>47</v>
       </c>
-      <c r="L31" s="2">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2">
-        <v>1</v>
-      </c>
-      <c r="N31" s="2">
-        <v>1</v>
-      </c>
       <c r="O31" s="2">
         <v>1</v>
       </c>
@@ -1803,23 +1794,20 @@
       <c r="S31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T31" s="2">
+        <v>1</v>
+      </c>
+      <c r="U31" s="2">
+        <v>1</v>
+      </c>
+      <c r="V31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>48</v>
       </c>
-      <c r="L32" s="2">
-        <v>1</v>
-      </c>
-      <c r="M32" s="2">
-        <v>1</v>
-      </c>
-      <c r="N32" s="2">
-        <v>1</v>
-      </c>
-      <c r="O32" s="2">
-        <v>1</v>
-      </c>
       <c r="P32" s="2">
         <v>1</v>
       </c>
@@ -1832,20 +1820,20 @@
       <c r="S32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T32" s="2">
+        <v>1</v>
+      </c>
+      <c r="U32" s="2">
+        <v>1</v>
+      </c>
+      <c r="V32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>49</v>
       </c>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1</v>
-      </c>
       <c r="O33" s="3">
         <v>1</v>
       </c>
@@ -1861,166 +1849,175 @@
       <c r="S33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T33" s="3">
+        <v>1</v>
+      </c>
+      <c r="U33" s="3">
+        <v>1</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>50</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>1</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2">
+        <v>1</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1</v>
+      </c>
+      <c r="U34" s="2">
+        <v>1</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>51</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
+      <c r="R35" s="2">
+        <v>1</v>
+      </c>
+      <c r="S35" s="2">
+        <v>1</v>
+      </c>
+      <c r="T35" s="2">
+        <v>1</v>
+      </c>
+      <c r="U35" s="2">
+        <v>1</v>
+      </c>
+      <c r="V35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>52</v>
       </c>
-      <c r="O36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>53</v>
       </c>
-      <c r="O37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>55</v>
       </c>
-      <c r="O39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>56</v>
       </c>
-      <c r="O40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>57</v>
       </c>
-      <c r="O41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>58</v>
       </c>
-      <c r="O42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>60</v>
       </c>
-      <c r="O44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>61</v>
       </c>
-      <c r="O45" s="2">
-        <v>1</v>
-      </c>
-      <c r="P45" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>1</v>
-      </c>
       <c r="R45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S45" s="2">
+        <v>1</v>
+      </c>
+      <c r="T45" s="2">
+        <v>1</v>
+      </c>
+      <c r="U45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>62</v>
       </c>
-      <c r="R46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>64</v>
       </c>
-      <c r="R48" s="2">
+      <c r="U48" s="2">
         <v>1</v>
       </c>
     </row>
